--- a/Examen II/1. Clase 24 abril 2023 - Programación Lineal.xlsx
+++ b/Examen II/1. Clase 24 abril 2023 - Programación Lineal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laguilar/Documents/GitHub/ucr/if-7200-i-2023/Examen II/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE8875A-1E35-D047-8785-A9ACA510F3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BEE7AD-D5C8-844B-8E3B-8F49E0692DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-240" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{FD05E779-BD67-B045-94A5-FD0BFBADA708}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{FD05E779-BD67-B045-94A5-FD0BFBADA708}"/>
   </bookViews>
   <sheets>
     <sheet name="M y S Solver A" sheetId="1" r:id="rId1"/>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
